--- a/ProyectoFinalDT/CoolerPrediction.xlsx
+++ b/ProyectoFinalDT/CoolerPrediction.xlsx
@@ -689,7 +689,7 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:1">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="211" spans="1:1">
       <c r="A211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:1">
@@ -1579,7 +1579,7 @@
     </row>
     <row r="242" spans="1:1">
       <c r="A242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:1">
@@ -1724,7 +1724,7 @@
     </row>
     <row r="271" spans="1:1">
       <c r="A271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:1">
@@ -1844,7 +1844,7 @@
     </row>
     <row r="295" spans="1:1">
       <c r="A295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:1">
@@ -2054,7 +2054,7 @@
     </row>
     <row r="337" spans="1:1">
       <c r="A337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:1">
@@ -2129,7 +2129,7 @@
     </row>
     <row r="352" spans="1:1">
       <c r="A352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:1">
@@ -3109,7 +3109,7 @@
     </row>
     <row r="548" spans="1:1">
       <c r="A548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:1">
@@ -3334,7 +3334,7 @@
     </row>
     <row r="593" spans="1:1">
       <c r="A593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:1">
@@ -3574,7 +3574,7 @@
     </row>
     <row r="641" spans="1:1">
       <c r="A641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:1">
@@ -3829,12 +3829,12 @@
     </row>
     <row r="692" spans="1:1">
       <c r="A692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:1">
@@ -4324,7 +4324,7 @@
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:1">
@@ -4414,7 +4414,7 @@
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:1">
@@ -4554,7 +4554,7 @@
     </row>
     <row r="837" spans="1:1">
       <c r="A837">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:1">
@@ -5234,7 +5234,7 @@
     </row>
     <row r="973" spans="1:1">
       <c r="A973">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:1">
@@ -5474,7 +5474,7 @@
     </row>
     <row r="1021" spans="1:1">
       <c r="A1021">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1022" spans="1:1">
@@ -5694,7 +5694,7 @@
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
@@ -5999,7 +5999,7 @@
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
@@ -6179,7 +6179,7 @@
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
@@ -6364,7 +6364,7 @@
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
@@ -6529,7 +6529,7 @@
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
@@ -6824,7 +6824,7 @@
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
@@ -7244,7 +7244,7 @@
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
@@ -7549,7 +7549,7 @@
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
@@ -7564,7 +7564,7 @@
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
@@ -7574,7 +7574,7 @@
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
@@ -8234,7 +8234,7 @@
     </row>
     <row r="1573" spans="1:1">
       <c r="A1573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1574" spans="1:1">
@@ -8824,7 +8824,7 @@
     </row>
     <row r="1691" spans="1:1">
       <c r="A1691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1692" spans="1:1">
@@ -8849,7 +8849,7 @@
     </row>
     <row r="1696" spans="1:1">
       <c r="A1696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1697" spans="1:1">
@@ -8939,12 +8939,12 @@
     </row>
     <row r="1714" spans="1:1">
       <c r="A1714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1715" spans="1:1">
       <c r="A1715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1716" spans="1:1">
@@ -9389,7 +9389,7 @@
     </row>
     <row r="1804" spans="1:1">
       <c r="A1804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1805" spans="1:1">
@@ -9479,7 +9479,7 @@
     </row>
     <row r="1822" spans="1:1">
       <c r="A1822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1823" spans="1:1">
@@ -9614,7 +9614,7 @@
     </row>
     <row r="1849" spans="1:1">
       <c r="A1849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1850" spans="1:1">
@@ -9739,7 +9739,7 @@
     </row>
     <row r="1874" spans="1:1">
       <c r="A1874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1875" spans="1:1">
@@ -9804,7 +9804,7 @@
     </row>
     <row r="1887" spans="1:1">
       <c r="A1887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1888" spans="1:1">
@@ -10099,7 +10099,7 @@
     </row>
     <row r="1946" spans="1:1">
       <c r="A1946">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1947" spans="1:1">
@@ -10549,7 +10549,7 @@
     </row>
     <row r="2036" spans="1:1">
       <c r="A2036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2037" spans="1:1">
@@ -10739,7 +10739,7 @@
     </row>
     <row r="2074" spans="1:1">
       <c r="A2074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2075" spans="1:1">
@@ -11814,7 +11814,7 @@
     </row>
     <row r="2289" spans="1:1">
       <c r="A2289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2290" spans="1:1">
@@ -11844,12 +11844,12 @@
     </row>
     <row r="2295" spans="1:1">
       <c r="A2295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2296" spans="1:1">
       <c r="A2296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2297" spans="1:1">
@@ -11914,7 +11914,7 @@
     </row>
     <row r="2309" spans="1:1">
       <c r="A2309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2310" spans="1:1">
@@ -12454,7 +12454,7 @@
     </row>
     <row r="2417" spans="1:1">
       <c r="A2417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2418" spans="1:1">
@@ -13074,7 +13074,7 @@
     </row>
     <row r="2541" spans="1:1">
       <c r="A2541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2542" spans="1:1">
@@ -13489,7 +13489,7 @@
     </row>
     <row r="2624" spans="1:1">
       <c r="A2624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2625" spans="1:1">
@@ -13534,7 +13534,7 @@
     </row>
     <row r="2633" spans="1:1">
       <c r="A2633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2634" spans="1:1">
@@ -14449,7 +14449,7 @@
     </row>
     <row r="2816" spans="1:1">
       <c r="A2816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2817" spans="1:1">
@@ -14549,7 +14549,7 @@
     </row>
     <row r="2836" spans="1:1">
       <c r="A2836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2837" spans="1:1">
@@ -14664,7 +14664,7 @@
     </row>
     <row r="2859" spans="1:1">
       <c r="A2859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2860" spans="1:1">
@@ -14769,7 +14769,7 @@
     </row>
     <row r="2880" spans="1:1">
       <c r="A2880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2881" spans="1:1">
@@ -14999,7 +14999,7 @@
     </row>
     <row r="2926" spans="1:1">
       <c r="A2926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2927" spans="1:1">
@@ -15089,7 +15089,7 @@
     </row>
     <row r="2944" spans="1:1">
       <c r="A2944">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2945" spans="1:1">
@@ -15174,7 +15174,7 @@
     </row>
     <row r="2961" spans="1:1">
       <c r="A2961">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2962" spans="1:1">
@@ -15184,7 +15184,7 @@
     </row>
     <row r="2963" spans="1:1">
       <c r="A2963">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2964" spans="1:1">
@@ -15654,7 +15654,7 @@
     </row>
     <row r="3057" spans="1:1">
       <c r="A3057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3058" spans="1:1">
@@ -15809,7 +15809,7 @@
     </row>
     <row r="3088" spans="1:1">
       <c r="A3088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3089" spans="1:1">
@@ -16159,7 +16159,7 @@
     </row>
     <row r="3158" spans="1:1">
       <c r="A3158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3159" spans="1:1">
